--- a/sheets/learnings.xlsx
+++ b/sheets/learnings.xlsx
@@ -618,6 +618,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="28.57421875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
@@ -625,11 +628,17 @@
       </c>
     </row>
     <row r="3" ht="14.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="14.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>

--- a/sheets/learnings.xlsx
+++ b/sheets/learnings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">15 points checker list </t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve">Buy in DIP  (Always ) aka when people are fearful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently in mid 2025 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are seeing gold and BTC arbitrage </t>
   </si>
 </sst>
 </file>
@@ -713,6 +719,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/sheets/learnings.xlsx
+++ b/sheets/learnings.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common stocks uncommon profit" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="valuing_companies" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">15 points checker list </t>
   </si>
@@ -73,18 +74,107 @@
   </si>
   <si>
     <t xml:space="preserve">we are seeing gold and BTC arbitrage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if a mature company shows, good growth no. like 30% , it hypergrowth and even best companies get capped at 8-12% which is considered a nice growth, so its a max of (median-value , 12) and the terminal value gets aligned at the GDP value, which is at 1-2%  .... </t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Year CAGR (2014–2024)</t>
+  </si>
+  <si>
+    <t>~31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median 10-Year Sales Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended Forward Growth</t>
+  </si>
+  <si>
+    <t>8–12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended Terminal Growth</t>
+  </si>
+  <si>
+    <t>3–5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and if the expense ratio is also higher like 25% + so see in what proportion are the expense growth rate to the revenue growth rate and then take the approximate figure as per understanding .. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended Near-Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended Long-Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Benefits</t>
+  </si>
+  <si>
+    <t>10–12%</t>
+  </si>
+  <si>
+    <t>6–8%</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>4–6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Expenses</t>
+  </si>
+  <si>
+    <t>8–10%</t>
+  </si>
+  <si>
+    <t>5–7%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.500000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10.500000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.500000"/>
+      <color indexed="64"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10.500000"/>
+      <color indexed="64"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,8 +197,32 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,4 +849,144 @@
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="B8" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="109.421875"/>
+    <col customWidth="1" min="3" max="3" style="1" width="16.00390625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="15.28125"/>
+    <col customWidth="1" min="5" max="5" style="1" width="17.421875"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="42.75">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.18899999999999997</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>